--- a/S3/R3.03 - Analyse/TP1/qt4 scénario.xlsx
+++ b/S3/R3.03 - Analyse/TP1/qt4 scénario.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Modèle" sheetId="1" r:id="rId1"/>
+    <sheet name="Planifier un entretien" sheetId="2" r:id="rId2"/>
+    <sheet name="Confirmer présence" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="54">
   <si>
     <t>Cas d'utilisation</t>
   </si>
@@ -118,6 +120,69 @@
   </si>
   <si>
     <t>Retour Etape 1</t>
+  </si>
+  <si>
+    <t>Planifier un entretien</t>
+  </si>
+  <si>
+    <t>Responsable administratif</t>
+  </si>
+  <si>
+    <t>Sous cas d'utilisation</t>
+  </si>
+  <si>
+    <t>Acteur</t>
+  </si>
+  <si>
+    <t>Demande la planification d'une nouvelle réunion</t>
+  </si>
+  <si>
+    <t>Affiche le formulaire de planification</t>
+  </si>
+  <si>
+    <t>Choisi la classe concernée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saisi la date ainsi que l'horaire </t>
+  </si>
+  <si>
+    <t>Enregistre la nouvelle réunion</t>
+  </si>
+  <si>
+    <t>Invite les parents d'élèves ainsi que les enseignants par mail</t>
+  </si>
+  <si>
+    <t>Retour page accueil</t>
+  </si>
+  <si>
+    <t>Indiquer son arrivée dans l'établissement</t>
+  </si>
+  <si>
+    <t>Arrive dans l'établissement et scanne le code barre à l'entrée du batiment</t>
+  </si>
+  <si>
+    <t>Enregistre la présence du parent</t>
+  </si>
+  <si>
+    <t>Redirige le parent sur une page contenant les profs qu'il doit aller voir, a quelle heure et dans quelle salle</t>
+  </si>
+  <si>
+    <t>Cas ou le code barre est faux</t>
+  </si>
+  <si>
+    <t>1,A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indique au parent que le code n'est pas valide </t>
+  </si>
+  <si>
+    <t>Retour etape 1</t>
+  </si>
+  <si>
+    <t>Annule l'entretien</t>
+  </si>
+  <si>
+    <t>Modifie</t>
   </si>
 </sst>
 </file>
@@ -217,11 +282,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -229,14 +291,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -520,7 +585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -531,55 +596,55 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="8"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="9"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="9"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="9"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="7"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
@@ -596,8 +661,8 @@
       <c r="B10" s="1">
         <v>1</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -605,17 +670,17 @@
       <c r="B11" s="1">
         <v>2</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="9"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>3</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -623,17 +688,17 @@
       <c r="B13" s="1">
         <v>4</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="9"/>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>5</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -641,8 +706,8 @@
       <c r="B15" s="1">
         <v>6</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -650,17 +715,17 @@
       <c r="B16" s="1">
         <v>7</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="9"/>
+      <c r="D16" s="3"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>8</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9" t="s">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -668,17 +733,17 @@
       <c r="B18" s="1">
         <v>9</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9" t="s">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="6"/>
+      <c r="D19" s="5"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
@@ -742,4 +807,418 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="4" width="50.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>4</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>5</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>6</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <v>7</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>8</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
+        <v>9</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="C19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+      <c r="C20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+      <c r="C24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="4" width="50.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>4</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>5</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>6</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <v>7</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>8</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
+        <v>9</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="C19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>